--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3033,7 +3033,11 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3086,7 +3090,11 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3139,7 +3147,11 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2691, WESTON - LIFO</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3184,7 +3196,11 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>6205 BUSINESS HWY 51</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3229,7 +3245,11 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6QpvpLFDTrh8njoi9</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3270,7 +3290,11 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>?? am meet for Trevor / Madison / Michelle / Terri</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3351,14 +3375,436 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>meet Michelle @ Point Target</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jacqui</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -2440,7 +2440,7 @@
       <c r="O41" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Altima</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2491,7 +2491,12 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -3085,7 +3085,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3364,21 +3364,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -2840,7 +2840,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -776,7 +776,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM MEET AT BROOKFIELD PICK N SAVE (GREENFIELD)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1366,7 +1366,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6:15 AM OFFICE MEET</t>
+          <t>6:15 AM MEET AT BROOKFIELD PICK N SAVE (GREENFIELD)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -2422,7 +2422,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -825,7 +825,8 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>ADDRESS FOR PNS MEET
+15170 W GREENFIELD AVE, BROOKFIELD</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -874,7 +875,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -918,13 +919,17 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tuesday we will be using the local Pick n Save in Brookfield</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -967,13 +972,17 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>for a couple meets.  They are doing work to the office parking lot over the weekend</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1022,7 +1031,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1065,7 +1074,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1113,22 +1126,9 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
@@ -1182,15 +1182,20 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
@@ -1249,8 +1254,16 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
@@ -1364,11 +1377,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>6:15 AM MEET AT BROOKFIELD PICK N SAVE (GREENFIELD)</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1423,7 +1432,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET AT BROOKFIELD PICK N SAVE (GREENFIELD)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1492,7 +1501,8 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ADDRESS FOR PNS MEET
+15170 W GREENFIELD AVE, BROOKFIELD</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1541,7 +1551,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>KANSASVILLE CITGO QUICK MART</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1590,7 +1600,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23010 DURAND AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1643,7 +1653,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
+          <t>KANSASVILLE CITGO QUICK MART</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1688,7 +1698,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>23010 DURAND AVE</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1733,7 +1743,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/QZs8ZSjv9eL2</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1786,7 +1796,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>TWIN LAKES CITGO, TWIN LAKES</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1827,7 +1837,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>410 N LAKE AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1864,7 +1874,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
+          <t>TWIN LAKES CITGO, TWIN LAKES</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1917,7 +1927,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>410 N LAKE AVE</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1966,7 +1976,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/k9s2GwpMbH32</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2007,7 +2017,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>SALEM MINI MART</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2044,7 +2054,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>8246 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2098,7 +2108,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZogqdPdZb8oiCNZXA</t>
+          <t>SALEM MINI MART</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2141,7 +2151,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>8246 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2193,21 +2207,13 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/ZogqdPdZb8oiCNZXA</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2238,16 +2244,8 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2281,18 +2279,17 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2333,8 +2330,16 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2370,9 +2375,22 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -2420,11 +2438,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -2474,11 +2488,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2530,7 +2540,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>5:15 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2579,7 +2589,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2624,7 +2634,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2681,7 +2691,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2733,7 +2743,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>N649 STATE RD 67</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -2799,22 +2813,13 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -2870,16 +2875,8 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -2934,15 +2931,20 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -2995,12 +2997,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3058,8 +3060,16 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3115,8 +3125,16 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
@@ -3173,11 +3191,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3222,11 +3236,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3271,7 +3281,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3316,7 +3330,11 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -1891,7 +1891,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>Wht Camry available, Equip</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t>Wht Camry available, Equip</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2388,7 +2388,7 @@
       <c r="K40" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
       <c r="W47" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry, Equip</t>
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1156,11 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Kim &amp; Jerry will check in after their C-Store</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
@@ -1217,21 +1221,9 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
@@ -1288,15 +1280,19 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
@@ -1345,12 +1341,12 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1398,12 +1394,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1467,12 +1463,12 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1525,15 +1521,19 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1574,12 +1574,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1627,15 +1627,19 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -1672,12 +1676,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1717,12 +1721,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1766,19 +1770,15 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -1817,8 +1817,16 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1854,9 +1862,21 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -1904,11 +1924,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1953,11 +1969,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1996,7 +2008,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2033,7 +2045,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>3355 W FOREST HOME AVE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2087,7 +2099,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+          <t>AURORA OUTPATIENT RX #1194, MILWAUKEE</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2134,7 +2146,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>3355 W FOREST HOME AVE</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2178,21 +2194,13 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Wht Camry available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/nyTEMnH2h4tpY6i79</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -2260,9 +2268,21 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Wht Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -2309,10 +2329,14 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2355,11 +2379,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2417,11 +2437,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2469,7 +2485,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2519,7 +2535,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>ROETTGERS EAST TROY ARC</t>
+          <t>6:30 AM MEET RACINE COURT (HWY 43 &amp; Y)</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2568,7 +2584,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>2097 DIVISION STREET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2613,7 +2629,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2670,7 +2686,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>*Kim - Bring backup DC5's too</t>
+          <t>ROETTGERS EAST TROY ARC</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2726,7 +2742,11 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2097 DIVISION STREET</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2783,22 +2803,13 @@
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/yHRRMXRkSnLcJJTt9</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
@@ -2850,14 +2861,10 @@
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>*Kim - Bring backup DC5's too</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2913,7 +2920,11 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>*Check in with DJ after the store</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3039,13 +3050,22 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
@@ -3104,10 +3124,14 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3170,11 +3194,7 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2691, WESTON - LIFO</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3215,11 +3235,7 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>6205 BUSINESS HWY 51</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3262,7 +3278,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6QpvpLFDTrh8njoi9</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3311,7 +3327,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>?? am meet for Trevor / Madison / Michelle / Terri</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3358,7 +3374,11 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2691, WESTON - LIFO</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3386,21 +3406,13 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>6205 BUSINESS HWY 51</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
@@ -3427,21 +3439,13 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>meet Michelle @ Point Target</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6QpvpLFDTrh8njoi9</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
@@ -3468,21 +3472,13 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>?? am meet for Trevor / Madison / Michelle / Terri</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -3509,21 +3505,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -3552,17 +3536,17 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
@@ -3593,17 +3577,17 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Michelle @ Point Target</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -3634,12 +3618,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3675,12 +3659,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -3716,12 +3700,12 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -3757,12 +3741,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -3798,12 +3782,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -3816,6 +3800,170 @@
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -700,7 +700,11 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Red Camry oil change</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -1177,7 +1177,11 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
+++ b/08-31-25 to 09-06-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3483,7 +3483,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>?? am meet for Trevor / Madison / Michelle / Terri</t>
+          <t>?? am meet for Trevor / Madison / Michelle</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3931,47 +3931,6 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
